--- a/files_to_deal/out.xlsx
+++ b/files_to_deal/out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>序号</t>
   </si>
@@ -79,6 +79,9 @@
     <t>阳性项目数</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
   </si>
   <si>
     <t>16.00</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>21</t>
@@ -537,127 +543,133 @@
       </c>
     </row>
     <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" t="s">
         <v>39</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/files_to_deal/out.xlsx
+++ b/files_to_deal/out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>序号</t>
   </si>
@@ -82,9 +82,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>男</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>女</t>
   </si>
   <si>
@@ -140,6 +134,12 @@
   </si>
   <si>
     <t>1.60</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0488</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,130 +546,174 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
         <v>32</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="K3" t="s">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" t="s">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" t="s">
         <v>32</v>
-      </c>
-      <c r="T3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
